--- a/static/template/请求参数说明.xlsx
+++ b/static/template/请求参数说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="22488" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>请求类型</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -27,6 +30,24 @@
   <si>
     <t>说明</t>
   </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>请求头</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
 </sst>
 </file>
 
@@ -38,7 +59,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,6 +68,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -54,9 +123,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,38 +177,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,22 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,53 +232,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,31 +254,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,37 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,119 +434,128 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,15 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -442,26 +591,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,8 +627,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,161 +636,189 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1031,33 +1202,107 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.7" customWidth="1"/>
+    <col min="2" max="2" width="13.3" customWidth="1"/>
+    <col min="3" max="3" width="15.3" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4">
+      <formula1>"Long,String,BigDecimal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+      <formula1>"请求头,请求参数"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>